--- a/client/template/MESIN_DOWNTIME.xlsx
+++ b/client/template/MESIN_DOWNTIME.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\client\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207C10D7-6479-4F6A-B742-3CFDB2FFA0D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DCC83-37FD-4F1F-A172-E4BDE2DBEC30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>KATEGORI</t>
   </si>
   <si>
-    <t>[rec.kode_downtime]</t>
-  </si>
-  <si>
     <t>[rec.keterangan_problem]</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>[rec.jam_selesai]</t>
+  </si>
+  <si>
+    <t>[rec.kode_problem]</t>
   </si>
 </sst>
 </file>
@@ -1885,7 +1885,7 @@
   <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,22 +1944,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I3" s="21" t="s">
         <v>6</v>
@@ -1984,28 +1984,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="27" t="s">
+      <c r="J4" s="26" t="s">
         <v>9</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>10</v>
       </c>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
